--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ctf1</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ctf1</t>
-  </si>
-  <si>
-    <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H2">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I2">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J2">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N2">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O2">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P2">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q2">
-        <v>21.62161402496667</v>
+        <v>15.17795273535634</v>
       </c>
       <c r="R2">
-        <v>194.5945262247</v>
+        <v>136.601574618207</v>
       </c>
       <c r="S2">
-        <v>0.05578285343270076</v>
+        <v>0.03736124059986015</v>
       </c>
       <c r="T2">
-        <v>0.07673671210766569</v>
+        <v>0.04806497601429324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H3">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I3">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J3">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P3">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q3">
-        <v>50.33219451074167</v>
+        <v>34.4759324137399</v>
       </c>
       <c r="R3">
-        <v>452.989750596675</v>
+        <v>310.283391723659</v>
       </c>
       <c r="S3">
-        <v>0.129854941730846</v>
+        <v>0.08486412023235314</v>
       </c>
       <c r="T3">
-        <v>0.1786326920579543</v>
+        <v>0.1091771000628234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H4">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I4">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J4">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N4">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O4">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P4">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q4">
-        <v>6.947975286900001</v>
+        <v>6.268188450689445</v>
       </c>
       <c r="R4">
-        <v>62.53177758210001</v>
+        <v>56.413696056205</v>
       </c>
       <c r="S4">
-        <v>0.01792548357563086</v>
+        <v>0.01542943906301306</v>
       </c>
       <c r="T4">
-        <v>0.02465887970742477</v>
+        <v>0.01984986597261168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H5">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I5">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J5">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N5">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O5">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P5">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q5">
-        <v>12.2917762794875</v>
+        <v>5.068387485678334</v>
       </c>
       <c r="R5">
-        <v>73.750657676925</v>
+        <v>30.41032491407</v>
       </c>
       <c r="S5">
-        <v>0.03171226504341672</v>
+        <v>0.01247607286749815</v>
       </c>
       <c r="T5">
-        <v>0.0290829505623928</v>
+        <v>0.01070025394412122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.397225</v>
+        <v>0.2720863333333334</v>
       </c>
       <c r="H6">
-        <v>1.191675</v>
+        <v>0.8162590000000001</v>
       </c>
       <c r="I6">
-        <v>0.2502673203813375</v>
+        <v>0.1601964374275199</v>
       </c>
       <c r="J6">
-        <v>0.3297344111653286</v>
+        <v>0.2007414748833069</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N6">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O6">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P6">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q6">
-        <v>5.810860994366666</v>
+        <v>4.089121835464667</v>
       </c>
       <c r="R6">
-        <v>52.29774894929999</v>
+        <v>36.802096519182</v>
       </c>
       <c r="S6">
-        <v>0.01499177659874322</v>
+        <v>0.01006556466479538</v>
       </c>
       <c r="T6">
-        <v>0.02062317672989107</v>
+        <v>0.0129492788894574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H7">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I7">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J7">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N7">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O7">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P7">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q7">
-        <v>62.46378014007133</v>
+        <v>22.158636934975</v>
       </c>
       <c r="R7">
-        <v>374.782680840428</v>
+        <v>199.427732414775</v>
       </c>
       <c r="S7">
-        <v>0.1611539216444511</v>
+        <v>0.05454452127552448</v>
       </c>
       <c r="T7">
-        <v>0.1477923929339211</v>
+        <v>0.07017114701563215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,25 +903,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H8">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I8">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J8">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P8">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q8">
-        <v>145.4072359378878</v>
+        <v>50.33219451074167</v>
       </c>
       <c r="R8">
-        <v>872.443415627327</v>
+        <v>452.989750596675</v>
       </c>
       <c r="S8">
-        <v>0.3751445438352209</v>
+        <v>0.123895051053513</v>
       </c>
       <c r="T8">
-        <v>0.3440407112886453</v>
+        <v>0.1593901209265259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,25 +965,25 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H9">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I9">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J9">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N9">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O9">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P9">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q9">
-        <v>20.072359086534</v>
+        <v>9.151070275458332</v>
       </c>
       <c r="R9">
-        <v>120.434154519204</v>
+        <v>82.359632479125</v>
       </c>
       <c r="S9">
-        <v>0.05178584094969718</v>
+        <v>0.02252578752015731</v>
       </c>
       <c r="T9">
-        <v>0.04749219426963115</v>
+        <v>0.02897926887533494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,25 +1027,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H10">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I10">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J10">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N10">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O10">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P10">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q10">
-        <v>35.51033748758425</v>
+        <v>7.399453674625</v>
       </c>
       <c r="R10">
-        <v>142.041349950337</v>
+        <v>44.39672204775</v>
       </c>
       <c r="S10">
-        <v>0.09161517494153425</v>
+        <v>0.01821410132614263</v>
       </c>
       <c r="T10">
-        <v>0.05601280976391457</v>
+        <v>0.01562154306275417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,25 +1089,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.1475635</v>
+        <v>0.397225</v>
       </c>
       <c r="H11">
-        <v>2.295127</v>
+        <v>1.191675</v>
       </c>
       <c r="I11">
-        <v>0.7230099870663453</v>
+        <v>0.2338744069853316</v>
       </c>
       <c r="J11">
-        <v>0.6350576708369707</v>
+        <v>0.2930670253945926</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N11">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O11">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P11">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q11">
-        <v>16.78729178855533</v>
+        <v>5.96980157435</v>
       </c>
       <c r="R11">
-        <v>100.723750731332</v>
+        <v>53.72821416915</v>
       </c>
       <c r="S11">
-        <v>0.0433105056954418</v>
+        <v>0.01469494580999418</v>
       </c>
       <c r="T11">
-        <v>0.03971956258085862</v>
+        <v>0.0189049455143455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H12">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I12">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J12">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N12">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O12">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P12">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q12">
-        <v>2.308682344916889</v>
+        <v>57.409292192513</v>
       </c>
       <c r="R12">
-        <v>20.778141104252</v>
+        <v>344.455753155078</v>
       </c>
       <c r="S12">
-        <v>0.005956303202917863</v>
+        <v>0.1413156580251925</v>
       </c>
       <c r="T12">
-        <v>0.00819368490462224</v>
+        <v>0.1212010737040027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H13">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I13">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J13">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>380.128601</v>
       </c>
       <c r="O13">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P13">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q13">
-        <v>5.374300397449222</v>
+        <v>130.4022296063143</v>
       </c>
       <c r="R13">
-        <v>48.368703577043</v>
+        <v>782.4133776378859</v>
       </c>
       <c r="S13">
-        <v>0.01386546864762459</v>
+        <v>0.3209911876804468</v>
       </c>
       <c r="T13">
-        <v>0.0190737907865234</v>
+        <v>0.2753019526644221</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H14">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I14">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J14">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N14">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O14">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P14">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q14">
-        <v>0.7418811500040001</v>
+        <v>23.70888014726166</v>
       </c>
       <c r="R14">
-        <v>6.676930350036001</v>
+        <v>142.25328088357</v>
       </c>
       <c r="S14">
-        <v>0.001914022117283653</v>
+        <v>0.05836051745448362</v>
       </c>
       <c r="T14">
-        <v>0.002632991235539766</v>
+        <v>0.05005359969483092</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H15">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I15">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J15">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N15">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O15">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P15">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q15">
-        <v>1.312474029522167</v>
+        <v>19.170736869695</v>
       </c>
       <c r="R15">
-        <v>7.874844177133</v>
+        <v>76.68294747877999</v>
       </c>
       <c r="S15">
-        <v>0.003386127711766609</v>
+        <v>0.04718966550718208</v>
       </c>
       <c r="T15">
-        <v>0.003105378461753874</v>
+        <v>0.02698185611384314</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04241433333333333</v>
+        <v>1.029143</v>
       </c>
       <c r="H16">
-        <v>0.127243</v>
+        <v>2.058286</v>
       </c>
       <c r="I16">
-        <v>0.02672269255231714</v>
+        <v>0.6059291555871485</v>
       </c>
       <c r="J16">
-        <v>0.03520791799770064</v>
+        <v>0.5061914997221006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N16">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O16">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P16">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q16">
-        <v>0.6204639566208888</v>
+        <v>15.466749327538</v>
       </c>
       <c r="R16">
-        <v>5.584175609587999</v>
+        <v>92.800495965228</v>
       </c>
       <c r="S16">
-        <v>0.001600770872724429</v>
+        <v>0.03807212691984351</v>
       </c>
       <c r="T16">
-        <v>0.002202072609261358</v>
+        <v>0.0326530175450019</v>
       </c>
     </row>
   </sheetData>
